--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,243 +534,243 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.11076499886071</v>
+        <v>3.137719</v>
       </c>
       <c r="H2">
-        <v>3.11076499886071</v>
+        <v>9.413157</v>
       </c>
       <c r="I2">
-        <v>0.02007253213244485</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J2">
-        <v>0.02007253213244485</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N2">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q2">
-        <v>40.604327158017</v>
+        <v>41.66748484148034</v>
       </c>
       <c r="R2">
-        <v>40.604327158017</v>
+        <v>375.007363573323</v>
       </c>
       <c r="S2">
-        <v>0.02007253213244485</v>
+        <v>0.01971301534680971</v>
       </c>
       <c r="T2">
-        <v>0.02007253213244485</v>
+        <v>0.01971301534680971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.0334356939895</v>
+        <v>3.137719</v>
       </c>
       <c r="H3">
-        <v>2.0334356939895</v>
+        <v>9.413157</v>
       </c>
       <c r="I3">
-        <v>0.01312095363095995</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J3">
-        <v>0.01312095363095995</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.0528430057841</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N3">
-        <v>13.0528430057841</v>
+        <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007530930793401502</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007530930793401503</v>
       </c>
       <c r="Q3">
-        <v>26.54211687600258</v>
+        <v>0.3196938216593334</v>
       </c>
       <c r="R3">
-        <v>26.54211687600258</v>
+        <v>2.877244394934</v>
       </c>
       <c r="S3">
-        <v>0.01312095363095995</v>
+        <v>0.0001512481311657396</v>
       </c>
       <c r="T3">
-        <v>0.01312095363095995</v>
+        <v>0.0001512481311657396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.3476707953522</v>
+        <v>3.137719</v>
       </c>
       <c r="H4">
-        <v>72.3476707953522</v>
+        <v>9.413157</v>
       </c>
       <c r="I4">
-        <v>0.4668308108388467</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J4">
-        <v>0.4668308108388467</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.0528430057841</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N4">
-        <v>13.0528430057841</v>
+        <v>0.188716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="Q4">
-        <v>944.3427887258836</v>
+        <v>0.1973792596013333</v>
       </c>
       <c r="R4">
-        <v>944.3427887258836</v>
+        <v>1.776413336412</v>
       </c>
       <c r="S4">
-        <v>0.4668308108388467</v>
+        <v>9.33807353255351E-05</v>
       </c>
       <c r="T4">
-        <v>0.4668308108388467</v>
+        <v>9.33807353255351E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.7795915287751</v>
+        <v>3.137719</v>
       </c>
       <c r="H5">
-        <v>76.7795915287751</v>
+        <v>9.413157</v>
       </c>
       <c r="I5">
-        <v>0.4954282366690397</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J5">
-        <v>0.4954282366690397</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.0528430057841</v>
+        <v>0.084843</v>
       </c>
       <c r="N5">
-        <v>13.0528430057841</v>
+        <v>0.254529</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.006271110847647699</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.0062711108476477</v>
       </c>
       <c r="Q5">
-        <v>1002.191954273332</v>
+        <v>0.266213493117</v>
       </c>
       <c r="R5">
-        <v>1002.191954273332</v>
+        <v>2.395921438053</v>
       </c>
       <c r="S5">
-        <v>0.4954282366690397</v>
+        <v>0.0001259464230996478</v>
       </c>
       <c r="T5">
-        <v>0.4954282366690397</v>
+        <v>0.0001259464230996478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,982 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.704749168655471</v>
+        <v>2.516030666666667</v>
       </c>
       <c r="H6">
-        <v>0.704749168655471</v>
+        <v>7.548092</v>
       </c>
       <c r="I6">
-        <v>0.004547466728708733</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="J6">
-        <v>0.004547466728708733</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N6">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q6">
-        <v>9.198980256916723</v>
+        <v>33.41174581408755</v>
       </c>
       <c r="R6">
-        <v>9.198980256916723</v>
+        <v>300.705712326788</v>
       </c>
       <c r="S6">
-        <v>0.004547466728708733</v>
+        <v>0.01580719979865751</v>
       </c>
       <c r="T6">
-        <v>0.004547466728708733</v>
+        <v>0.01580719979865752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.516030666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.548092</v>
+      </c>
+      <c r="I7">
+        <v>0.01610435158086607</v>
+      </c>
+      <c r="J7">
+        <v>0.01610435158086607</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.305662</v>
+      </c>
+      <c r="O7">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P7">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q7">
+        <v>0.2563516552115555</v>
+      </c>
+      <c r="R7">
+        <v>2.307164896904</v>
+      </c>
+      <c r="S7">
+        <v>0.0001212807572281084</v>
+      </c>
+      <c r="T7">
+        <v>0.0001212807572281084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.516030666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.548092</v>
+      </c>
+      <c r="I8">
+        <v>0.01610435158086607</v>
+      </c>
+      <c r="J8">
+        <v>0.01610435158086607</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.188716</v>
+      </c>
+      <c r="O8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q8">
+        <v>0.1582717477635555</v>
+      </c>
+      <c r="R8">
+        <v>1.424445729872</v>
+      </c>
+      <c r="S8">
+        <v>7.487885108734388E-05</v>
+      </c>
+      <c r="T8">
+        <v>7.487885108734389E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.516030666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.548092</v>
+      </c>
+      <c r="I9">
+        <v>0.01610435158086607</v>
+      </c>
+      <c r="J9">
+        <v>0.01610435158086607</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.084843</v>
+      </c>
+      <c r="N9">
+        <v>0.254529</v>
+      </c>
+      <c r="O9">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P9">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q9">
+        <v>0.213467589852</v>
+      </c>
+      <c r="R9">
+        <v>1.921208308668</v>
+      </c>
+      <c r="S9">
+        <v>0.0001009921738931016</v>
+      </c>
+      <c r="T9">
+        <v>0.0001009921738931016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>72.66191099999999</v>
+      </c>
+      <c r="H10">
+        <v>217.985733</v>
+      </c>
+      <c r="I10">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="J10">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N10">
+        <v>39.838639</v>
+      </c>
+      <c r="O10">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P10">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q10">
+        <v>964.9172137930429</v>
+      </c>
+      <c r="R10">
+        <v>8684.254924137387</v>
+      </c>
+      <c r="S10">
+        <v>0.4565053042262615</v>
+      </c>
+      <c r="T10">
+        <v>0.4565053042262616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>72.66191099999999</v>
+      </c>
+      <c r="H11">
+        <v>217.985733</v>
+      </c>
+      <c r="I11">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="J11">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.305662</v>
+      </c>
+      <c r="O11">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P11">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q11">
+        <v>7.403328346693999</v>
+      </c>
+      <c r="R11">
+        <v>66.629955120246</v>
+      </c>
+      <c r="S11">
+        <v>0.003502537431070563</v>
+      </c>
+      <c r="T11">
+        <v>0.003502537431070563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>72.66191099999999</v>
+      </c>
+      <c r="H12">
+        <v>217.985733</v>
+      </c>
+      <c r="I12">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="J12">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.188716</v>
+      </c>
+      <c r="O12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q12">
+        <v>4.570821732091999</v>
+      </c>
+      <c r="R12">
+        <v>41.13739558882799</v>
+      </c>
+      <c r="S12">
+        <v>0.002162469832173814</v>
+      </c>
+      <c r="T12">
+        <v>0.002162469832173814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>72.66191099999999</v>
+      </c>
+      <c r="H13">
+        <v>217.985733</v>
+      </c>
+      <c r="I13">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="J13">
+        <v>0.4650869231382975</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.084843</v>
+      </c>
+      <c r="N13">
+        <v>0.254529</v>
+      </c>
+      <c r="O13">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P13">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q13">
+        <v>6.164854514972999</v>
+      </c>
+      <c r="R13">
+        <v>55.483690634757</v>
+      </c>
+      <c r="S13">
+        <v>0.002916611648791669</v>
+      </c>
+      <c r="T13">
+        <v>0.00291661164879167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H14">
+        <v>230.835914</v>
+      </c>
+      <c r="I14">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J14">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N14">
+        <v>39.838639</v>
+      </c>
+      <c r="O14">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P14">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q14">
+        <v>1021.79873845345</v>
+      </c>
+      <c r="R14">
+        <v>9196.188646081046</v>
+      </c>
+      <c r="S14">
+        <v>0.4834161286459842</v>
+      </c>
+      <c r="T14">
+        <v>0.4834161286459841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H15">
+        <v>230.835914</v>
+      </c>
+      <c r="I15">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J15">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.305662</v>
+      </c>
+      <c r="O15">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P15">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q15">
+        <v>7.839751905007556</v>
+      </c>
+      <c r="R15">
+        <v>70.557767145068</v>
+      </c>
+      <c r="S15">
+        <v>0.003709010759985771</v>
+      </c>
+      <c r="T15">
+        <v>0.003709010759985771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H16">
+        <v>230.835914</v>
+      </c>
+      <c r="I16">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J16">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.188716</v>
+      </c>
+      <c r="O16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q16">
+        <v>4.840270038491555</v>
+      </c>
+      <c r="R16">
+        <v>43.562430346424</v>
+      </c>
+      <c r="S16">
+        <v>0.00228994665539542</v>
+      </c>
+      <c r="T16">
+        <v>0.00228994665539542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H17">
+        <v>230.835914</v>
+      </c>
+      <c r="I17">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J17">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.084843</v>
+      </c>
+      <c r="N17">
+        <v>0.254529</v>
+      </c>
+      <c r="O17">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P17">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q17">
+        <v>6.528270483834</v>
+      </c>
+      <c r="R17">
+        <v>58.754434354506</v>
+      </c>
+      <c r="S17">
+        <v>0.003088544862391853</v>
+      </c>
+      <c r="T17">
+        <v>0.003088544862391852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.972004</v>
+      </c>
+      <c r="H18">
+        <v>2.916012</v>
+      </c>
+      <c r="I18">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J18">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N18">
+        <v>39.838639</v>
+      </c>
+      <c r="O18">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P18">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q18">
+        <v>12.90777215418533</v>
+      </c>
+      <c r="R18">
+        <v>116.169949387668</v>
+      </c>
+      <c r="S18">
+        <v>0.006106706741158282</v>
+      </c>
+      <c r="T18">
+        <v>0.006106706741158281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.972004</v>
+      </c>
+      <c r="H19">
+        <v>2.916012</v>
+      </c>
+      <c r="I19">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J19">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.305662</v>
+      </c>
+      <c r="O19">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P19">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q19">
+        <v>0.09903489554933333</v>
+      </c>
+      <c r="R19">
+        <v>0.8913140599439999</v>
+      </c>
+      <c r="S19">
+        <v>4.685371395132054E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.685371395132054E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.972004</v>
+      </c>
+      <c r="H20">
+        <v>2.916012</v>
+      </c>
+      <c r="I20">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J20">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.188716</v>
+      </c>
+      <c r="O20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q20">
+        <v>0.06114423562133332</v>
+      </c>
+      <c r="R20">
+        <v>0.550298120592</v>
+      </c>
+      <c r="S20">
+        <v>2.892752609757643E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.892752609757643E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.972004</v>
+      </c>
+      <c r="H21">
+        <v>2.916012</v>
+      </c>
+      <c r="I21">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J21">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.084843</v>
+      </c>
+      <c r="N21">
+        <v>0.254529</v>
+      </c>
+      <c r="O21">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P21">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q21">
+        <v>0.082467735372</v>
+      </c>
+      <c r="R21">
+        <v>0.7422096183479999</v>
+      </c>
+      <c r="S21">
+        <v>3.901573947142813E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.901573947142813E-05</v>
       </c>
     </row>
   </sheetData>
